--- a/Project-x/ProX/Resources/关卡表.xlsx
+++ b/Project-x/ProX/Resources/关卡表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,143 +54,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>stage10</t>
+  </si>
+  <si>
+    <t>stage11</t>
+  </si>
+  <si>
+    <t>stage22</t>
+  </si>
+  <si>
+    <t>stage27</t>
+  </si>
+  <si>
+    <t>stage29</t>
+  </si>
+  <si>
+    <t>2：上下移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并列排放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：上下移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：上下移动 2：左右移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：上下移动 2：左右移动 在错位处跳跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个连跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：向右下移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：从地面下冒出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从地面下冒出来，速度不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别向两边运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2对向上下运动 3：连跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连跳，跳，连跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>stage7</t>
-  </si>
-  <si>
-    <t>stage10</t>
-  </si>
-  <si>
-    <t>stage11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：向右下移动连跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳+连跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时向右移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stage14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：向左移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个向左右移动，速度不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stage15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下移动，速度不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：变长，2：变宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：快速上下移动，2：变宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stage16</t>
-  </si>
-  <si>
-    <t>stage17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变宽，速度不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：向右移动 2：变宽 3：向右移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2：长宽都变，3：上下移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：上下移动，2、3：上下移动 4：左右移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stage18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stage19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stage20</t>
-  </si>
-  <si>
-    <t>stage21</t>
-  </si>
-  <si>
-    <t>stage22</t>
-  </si>
-  <si>
-    <t>stage23</t>
-  </si>
-  <si>
-    <t>stage24</t>
-  </si>
-  <si>
-    <t>stage25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stage26</t>
-  </si>
-  <si>
-    <t>stage27</t>
-  </si>
-  <si>
-    <t>stage28</t>
-  </si>
-  <si>
-    <t>stage29</t>
-  </si>
-  <si>
-    <t>stage30</t>
-  </si>
-  <si>
-    <t>2：上下移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并列排放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：上下移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：上下移动 2：左右移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：上下移动 2：左右移动 在错位处跳跃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个连跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1：连跳 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：向右下移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：从地面下冒出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从地面下冒出来，速度不一样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分别向两边运动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、2对向上下运动 3：连跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连跳，跳，连跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -575,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -586,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -597,227 +656,293 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Project-x/ProX/Resources/关卡表.xlsx
+++ b/Project-x/ProX/Resources/关卡表.xlsx
@@ -60,196 +60,199 @@
     <t>stage11</t>
   </si>
   <si>
+    <t>2：上下移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并列排放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：上下移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：上下移动 2：左右移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：上下移动 2：左右移动 在错位处跳跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个连跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：向右下移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：从地面下冒出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从地面下冒出来，速度不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别向两边运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2对向上下运动 3：连跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连跳，跳，连跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：向右下移动连跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳+连跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时向右移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：向左移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个向左右移动，速度不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下移动，速度不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：变长，2：变宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：快速上下移动，2：变宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变宽，速度不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：向右移动 2：变宽 3：向右移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2：长宽都变，3：上下移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：上下移动，2、3：上下移动 4：左右移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>stage22</t>
-  </si>
-  <si>
-    <t>stage27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stage29</t>
-  </si>
-  <si>
-    <t>2：上下移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并列排放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：上下移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：上下移动 2：左右移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：上下移动 2：左右移动 在错位处跳跃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个连跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：向右下移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：从地面下冒出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从地面下冒出来，速度不一样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分别向两边运动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、2对向上下运动 3：连跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连跳，跳，连跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：向右下移动连跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳+连跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时向右移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：向左移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各个向左右移动，速度不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上下移动，速度不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：变长，2：变宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：快速上下移动，2：变宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变宽，速度不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：向右移动 2：变宽 3：向右移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、2：长宽都变，3：上下移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：上下移动，2、3：上下移动 4：左右移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -634,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -645,7 +648,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -656,34 +659,34 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -694,24 +697,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -722,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -733,216 +736,216 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
         <v>48</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Project-x/ProX/Resources/关卡表.xlsx
+++ b/Project-x/ProX/Resources/关卡表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,62 @@
   </si>
   <si>
     <t>变形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage32</t>
+  </si>
+  <si>
+    <t>stage33</t>
+  </si>
+  <si>
+    <t>stage34</t>
+  </si>
+  <si>
+    <t>stage35</t>
+  </si>
+  <si>
+    <t>stage36</t>
+  </si>
+  <si>
+    <t>stage37</t>
+  </si>
+  <si>
+    <t>stage38</t>
+  </si>
+  <si>
+    <t>stage39</t>
+  </si>
+  <si>
+    <t>stage40</t>
+  </si>
+  <si>
+    <t>stage41</t>
+  </si>
+  <si>
+    <t>stage42</t>
+  </si>
+  <si>
+    <t>stage43</t>
+  </si>
+  <si>
+    <t>曲线移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渐隐，速度不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：移动变大 2：渐隐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、3上下移动 2、4渐隐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -625,6 +681,7 @@
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="40.375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -972,6 +1029,95 @@
       </c>
       <c r="D33" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Project-x/ProX/Resources/关卡表.xlsx
+++ b/Project-x/ProX/Resources/关卡表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,30 @@
   </si>
   <si>
     <t>1、3上下移动 2、4渐隐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2、4渐隐 3移动变大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渐隐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n秒后移动一个actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1渐隐 2左右移动 3 n秒后移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别n秒后移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间分别向两边n秒移动一个actor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1020,7 +1044,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="1:4">
       <c r="B33" t="s">
         <v>43</v>
       </c>
@@ -1031,7 +1055,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="1:4">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -1042,7 +1066,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="1:4">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -1053,7 +1077,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="1:4">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -1064,7 +1088,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -1075,48 +1102,78 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="1:4">
       <c r="B39" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" t="s">
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" t="s">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" t="s">
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" t="s">
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" t="s">
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
-      <c r="B45" t="s">
+    <row r="46" spans="1:4">
+      <c r="B46" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
-      <c r="B46" t="s">
+    <row r="47" spans="1:4">
+      <c r="B47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
-      <c r="B47" t="s">
+    <row r="48" spans="1:4">
+      <c r="B48" t="s">
         <v>76</v>
       </c>
     </row>

--- a/Project-x/ProX/Resources/关卡表.xlsx
+++ b/Project-x/ProX/Resources/关卡表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="初稿" sheetId="1" r:id="rId1"/>
+    <sheet name="二次修正" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="114">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,104 @@
   </si>
   <si>
     <t>中间分别向两边n秒移动一个actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上向下依次n秒以后移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n秒后移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage44</t>
+  </si>
+  <si>
+    <t>stage45</t>
+  </si>
+  <si>
+    <t>stage46</t>
+  </si>
+  <si>
+    <t>stage47</t>
+  </si>
+  <si>
+    <t>stage48</t>
+  </si>
+  <si>
+    <t>stage49</t>
+  </si>
+  <si>
+    <t>stage50</t>
+  </si>
+  <si>
+    <t>stage51</t>
+  </si>
+  <si>
+    <t>stage52</t>
+  </si>
+  <si>
+    <t>stage53</t>
+  </si>
+  <si>
+    <t>jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2跳 3渐隐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要找好位置跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别左右移动，速度不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、3左右移动 2：上下移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1向左移动 2、3上下移动 4、5连跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1上下移动 2、3 上下移动连跳 4 宽连跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1向右移动 2 向下移动宽 3向左移动  需要找好位置跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2变宽 3 变高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：变长 2变宽 3变长 需要找好位置跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1缩小 2、3变长 1到2不能落地 4放大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想各个方向移动，中间的放大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2变长  3放大 4、5 移动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,8 +493,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -693,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection sqref="A1:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1147,6 +1248,9 @@
       </c>
     </row>
     <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
       <c r="B44" t="s">
         <v>72</v>
       </c>
@@ -1161,20 +1265,85 @@
       <c r="B45" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="B46" t="s">
-        <v>74</v>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1186,12 +1355,453 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="47.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" customHeight="1">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Project-x/ProX/Resources/关卡表.xlsx
+++ b/Project-x/ProX/Resources/关卡表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,6 +447,22 @@
   </si>
   <si>
     <t>1、2变长  3放大 4、5 移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1355,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1661,143 +1677,143 @@
         <v>113</v>
       </c>
     </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="31" spans="1:4">
       <c r="B31" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>84</v>
+    <row r="36" spans="1:4">
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>88</v>
-      </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" t="s">
         <v>74</v>
       </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="B44" t="s">
+    <row r="46" spans="1:4">
+      <c r="B46" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>99</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>76</v>
       </c>
     </row>

--- a/Project-x/ProX/Resources/关卡表.xlsx
+++ b/Project-x/ProX/Resources/关卡表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="134">
   <si>
     <t>stage1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,6 +463,70 @@
   </si>
   <si>
     <t>stage29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、3移动加渐隐 2 渐隐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage311111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、3渐隐 2 移动加渐隐 需要找好位置跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面渐隐 下面移动加渐隐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2移动加渐隐，3、4渐隐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、变宽 2移动加渐隐 1、2之间要连跳 3、移动加渐隐 4变宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动加渐隐 速度不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1渐隐 2移动加渐隐 3 n秒后移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、3 n秒后移动 2、4渐隐加移动 2、3之间不能落地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、4移动加渐隐 2、3n秒后移动，需要找好位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1371,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D50" activeCellId="1" sqref="D47 D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1382,7 +1446,8 @@
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="47.25" customWidth="1"/>
+    <col min="4" max="4" width="47.375" customWidth="1"/>
+    <col min="5" max="5" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1724,97 +1789,200 @@
         <v>81</v>
       </c>
     </row>
+    <row r="34" spans="1:4">
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="36" spans="1:4">
       <c r="B36" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="B39" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="B41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>88</v>
-      </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
         <v>74</v>
       </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="B46" t="s">
+    <row r="53" spans="1:4">
+      <c r="B53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
         <v>99</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B54" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
